--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/Ali Data/6_Bus_Transmission_Test_System.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/Ali Data/6_Bus_Transmission_Test_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC062C4-D84B-419B-BCE9-A31E7001CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBFF0C-7A46-4A6E-A960-0863BB9C5988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="3375" windowWidth="13590" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2:AY10"/>
     </sheetView>
   </sheetViews>
